--- a/biology/Botanique/Pteropliini/Pteropliini.xlsx
+++ b/biology/Botanique/Pteropliini/Pteropliini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pteropliini Thomson, 1860 sont une tribu de coléoptères cérambycidés de la sous-famille des Lamiinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pteropliini sont des Longicornes ailés, caractérisés par les ongles divergentes, les tibias intermédiaires simples et le scape sans carène (cicatrise)[1]. Ils ont donc toutes les caractéristiques des Agapanthiini dont ils différent pour l'aspect bien plus massif et trapu.La coloration est généralement mimétique avec les écorces, mais il y a aussi de genres tropicaux (Callimetopus, Acronia) avec des colorations vives voire métalliques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pteropliini sont des Longicornes ailés, caractérisés par les ongles divergentes, les tibias intermédiaires simples et le scape sans carène (cicatrise). Ils ont donc toutes les caractéristiques des Agapanthiini dont ils différent pour l'aspect bien plus massif et trapu.La coloration est généralement mimétique avec les écorces, mais il y a aussi de genres tropicaux (Callimetopus, Acronia) avec des colorations vives voire métalliques.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pteropliini, qui comprennent plus de deux-mille espèces[2], sont répandus surtout dans l'Asie tropicale, mais ils sont présents aussi dans tous les continents. Seulement deux genres, avec une espèce chacun, sont répandus dans l'Europe méridionale[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pteropliini, qui comprennent plus de deux-mille espèces, sont répandus surtout dans l'Asie tropicale, mais ils sont présents aussi dans tous les continents. Seulement deux genres, avec une espèce chacun, sont répandus dans l'Europe méridionale,.
 </t>
         </is>
       </c>
@@ -575,8 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Genres
-Abaraeus Jordan, 1903
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Abaraeus Jordan, 1903
 Abryna Newman, 1842
 Acanthetaxalus Breuning, 1961
 Acronia Westwood, 1863
@@ -779,9 +800,43 @@
 Zaeeroides Breuning, 1938
 Zaeeropsis Breuning, 1943
 Zosmotes Pascoe, 1865
-Zygrita Thomson, 1860
-Liste des espèces présentes en France
-Niphona Mulsant, 1839
+Zygrita Thomson, 1860</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pteropliini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pteropliini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces présentes en France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Niphona Mulsant, 1839
 Niphona picticornis Mulsant, 1839
 Pterolophia Newman, 1842
 Pterolophia m-griseum (Mulsant, 1846)</t>
